--- a/registration/regist.php-test.xlsx
+++ b/registration/regist.php-test.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/masahiroyanagi/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/MAMP/htdocs/workspace/workspace-yanagi/programming-practice/registration/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46EF3620-4B78-A842-B11A-AFA1E2A5FFED}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4684CD5A-CCCD-544D-AD87-B01D3F50D444}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{D8A1DC71-EFB1-714B-9FCF-2435465ED977}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16260" xr2:uid="{D8A1DC71-EFB1-714B-9FCF-2435465ED977}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="62">
   <si>
     <t>単体テスト</t>
     <phoneticPr fontId="2"/>
@@ -349,6 +349,61 @@
   </si>
   <si>
     <t>解決策</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>柳　昌宏</t>
+    <rPh sb="0" eb="1">
+      <t>ヤナg</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>特になし</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>PC/macOS</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>○</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>◯</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>全角英字、漢字、ひらがな、カタカナが入力可能</t>
+    <rPh sb="0" eb="2">
+      <t>ゼンカk</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>×</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>かな入力状態で入力しても半角英字として認識される</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョk</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>HTMLにmax-length属性が適応されているか確認・修正</t>
+    <rPh sb="0" eb="1">
+      <t>オk</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>HTMLのpattern属性が正しく指定されているか確認・修正</t>
+    <rPh sb="0" eb="2">
+      <t>ゾクセ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -382,11 +437,9 @@
     </font>
     <font>
       <sz val="12"/>
-      <color theme="9" tint="0.59999389629810485"/>
-      <name val="游ゴシック"/>
-      <family val="2"/>
+      <color theme="1"/>
+      <name val="游ゴシック (本文)"/>
       <charset val="128"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -470,7 +523,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -486,25 +539,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -823,8 +888,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FC02697-BA93-C04F-A630-CA8E4C333EE2}">
   <dimension ref="A1:J34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J1:J2"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -832,6 +897,8 @@
     <col min="2" max="2" width="15.85546875" customWidth="1"/>
     <col min="3" max="3" width="25.7109375" customWidth="1"/>
     <col min="4" max="4" width="34.42578125" customWidth="1"/>
+    <col min="7" max="7" width="17.140625" customWidth="1"/>
+    <col min="10" max="10" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -855,10 +922,10 @@
       <c r="B2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="11"/>
+      <c r="D2" s="8"/>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
@@ -906,14 +973,24 @@
       <c r="C4" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="9"/>
+      <c r="E4" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="F4" s="14">
+        <v>44999</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>55</v>
+      </c>
       <c r="J4" s="4"/>
     </row>
     <row r="5" spans="1:10" ht="42">
@@ -926,17 +1003,27 @@
       <c r="C5" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="9"/>
+      <c r="E5" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="F5" s="14">
+        <v>44999</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>56</v>
+      </c>
       <c r="J5" s="4"/>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" ht="21">
       <c r="A6" s="3">
         <v>3</v>
       </c>
@@ -949,11 +1036,21 @@
       <c r="D6" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="9"/>
+      <c r="E6" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F6" s="14">
+        <v>44999</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="I6" s="11" t="s">
+        <v>56</v>
+      </c>
       <c r="J6" s="4"/>
     </row>
     <row r="7" spans="1:10" ht="63">
@@ -966,14 +1063,24 @@
       <c r="C7" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="5"/>
+      <c r="E7" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F7" s="14">
+        <v>44999</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="I7" s="12" t="s">
+        <v>56</v>
+      </c>
       <c r="J7" s="4"/>
     </row>
     <row r="8" spans="1:10" ht="42">
@@ -986,17 +1093,27 @@
       <c r="C8" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="5"/>
+      <c r="E8" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F8" s="14">
+        <v>44999</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="I8" s="12" t="s">
+        <v>56</v>
+      </c>
       <c r="J8" s="4"/>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" ht="21">
       <c r="A9" s="3">
         <v>6</v>
       </c>
@@ -1009,11 +1126,21 @@
       <c r="D9" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="5"/>
+      <c r="E9" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F9" s="14">
+        <v>44999</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="I9" s="12" t="s">
+        <v>56</v>
+      </c>
       <c r="J9" s="4"/>
     </row>
     <row r="10" spans="1:10" ht="63">
@@ -1026,14 +1153,24 @@
       <c r="C10" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="5"/>
+      <c r="E10" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F10" s="14">
+        <v>44999</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="I10" s="13" t="s">
+        <v>56</v>
+      </c>
       <c r="J10" s="4"/>
     </row>
     <row r="11" spans="1:10" ht="42">
@@ -1046,17 +1183,27 @@
       <c r="C11" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="5"/>
+      <c r="E11" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F11" s="14">
+        <v>44999</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="H11" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="I11" s="13" t="s">
+        <v>56</v>
+      </c>
       <c r="J11" s="4"/>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" ht="21">
       <c r="A12" s="3">
         <v>9</v>
       </c>
@@ -1069,11 +1216,21 @@
       <c r="D12" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="5"/>
+      <c r="E12" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F12" s="14">
+        <v>44999</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="H12" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="I12" s="13" t="s">
+        <v>56</v>
+      </c>
       <c r="J12" s="4"/>
     </row>
     <row r="13" spans="1:10" ht="63">
@@ -1086,14 +1243,24 @@
       <c r="C13" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D13" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="5"/>
+      <c r="E13" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F13" s="14">
+        <v>44999</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="H13" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="I13" s="13" t="s">
+        <v>56</v>
+      </c>
       <c r="J13" s="4"/>
     </row>
     <row r="14" spans="1:10" ht="42">
@@ -1106,17 +1273,27 @@
       <c r="C14" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="D14" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="5"/>
+      <c r="E14" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F14" s="14">
+        <v>44999</v>
+      </c>
+      <c r="G14" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="H14" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="I14" s="12" t="s">
+        <v>56</v>
+      </c>
       <c r="J14" s="4"/>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" ht="21">
       <c r="A15" s="3">
         <v>12</v>
       </c>
@@ -1129,11 +1306,21 @@
       <c r="D15" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="5"/>
+      <c r="E15" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F15" s="14">
+        <v>44999</v>
+      </c>
+      <c r="G15" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="H15" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="I15" s="13" t="s">
+        <v>56</v>
+      </c>
       <c r="J15" s="4"/>
     </row>
     <row r="16" spans="1:10" ht="106" customHeight="1">
@@ -1146,15 +1333,27 @@
       <c r="C16" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="8" t="s">
+      <c r="D16" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="4"/>
+      <c r="E16" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F16" s="14">
+        <v>44999</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="H16" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="I16" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="J16" s="6" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="17" spans="1:10" ht="42">
       <c r="A17" s="3">
@@ -1166,14 +1365,24 @@
       <c r="C17" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D17" s="8" t="s">
+      <c r="D17" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="5"/>
+      <c r="E17" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F17" s="14">
+        <v>44999</v>
+      </c>
+      <c r="G17" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="H17" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="I17" s="13" t="s">
+        <v>56</v>
+      </c>
       <c r="J17" s="4"/>
     </row>
     <row r="18" spans="1:10" ht="21">
@@ -1186,14 +1395,24 @@
       <c r="C18" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D18" s="8" t="s">
+      <c r="D18" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="5"/>
+      <c r="E18" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F18" s="14">
+        <v>44999</v>
+      </c>
+      <c r="G18" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="H18" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="I18" s="12" t="s">
+        <v>56</v>
+      </c>
       <c r="J18" s="4"/>
     </row>
     <row r="19" spans="1:10" ht="63">
@@ -1206,14 +1425,24 @@
       <c r="C19" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D19" s="8" t="s">
+      <c r="D19" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="5"/>
+      <c r="E19" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F19" s="14">
+        <v>44999</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="H19" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="I19" s="12" t="s">
+        <v>56</v>
+      </c>
       <c r="J19" s="4"/>
     </row>
     <row r="20" spans="1:10" ht="42">
@@ -1226,17 +1455,27 @@
       <c r="C20" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D20" s="8" t="s">
+      <c r="D20" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="5"/>
+      <c r="E20" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F20" s="14">
+        <v>44999</v>
+      </c>
+      <c r="G20" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="H20" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="I20" s="13" t="s">
+        <v>56</v>
+      </c>
       <c r="J20" s="4"/>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" ht="21">
       <c r="A21" s="3">
         <v>18</v>
       </c>
@@ -1249,11 +1488,21 @@
       <c r="D21" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="5"/>
+      <c r="E21" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F21" s="14">
+        <v>44999</v>
+      </c>
+      <c r="G21" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="H21" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="I21" s="13" t="s">
+        <v>56</v>
+      </c>
       <c r="J21" s="4"/>
     </row>
     <row r="22" spans="1:10" ht="42">
@@ -1266,14 +1515,24 @@
       <c r="C22" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D22" s="8" t="s">
+      <c r="D22" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="5"/>
+      <c r="E22" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F22" s="14">
+        <v>44999</v>
+      </c>
+      <c r="G22" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="H22" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="I22" s="13" t="s">
+        <v>56</v>
+      </c>
       <c r="J22" s="4"/>
     </row>
     <row r="23" spans="1:10" ht="63">
@@ -1286,14 +1545,24 @@
       <c r="C23" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D23" s="8" t="s">
+      <c r="D23" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="5"/>
+      <c r="E23" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F23" s="14">
+        <v>44999</v>
+      </c>
+      <c r="G23" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="H23" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="I23" s="12" t="s">
+        <v>56</v>
+      </c>
       <c r="J23" s="4"/>
     </row>
     <row r="24" spans="1:10" ht="42">
@@ -1306,14 +1575,24 @@
       <c r="C24" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D24" s="8" t="s">
+      <c r="D24" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="5"/>
+      <c r="E24" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F24" s="14">
+        <v>44999</v>
+      </c>
+      <c r="G24" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="H24" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="I24" s="13" t="s">
+        <v>56</v>
+      </c>
       <c r="J24" s="4"/>
     </row>
     <row r="25" spans="1:10" ht="21">
@@ -1326,14 +1605,24 @@
       <c r="C25" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D25" s="8" t="s">
+      <c r="D25" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="5"/>
+      <c r="E25" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F25" s="14">
+        <v>44999</v>
+      </c>
+      <c r="G25" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="H25" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="I25" s="13" t="s">
+        <v>56</v>
+      </c>
       <c r="J25" s="4"/>
     </row>
     <row r="26" spans="1:10" ht="42">
@@ -1346,14 +1635,24 @@
       <c r="C26" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="D26" s="8" t="s">
+      <c r="D26" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
-      <c r="I26" s="5"/>
+      <c r="E26" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F26" s="14">
+        <v>44999</v>
+      </c>
+      <c r="G26" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="H26" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="I26" s="13" t="s">
+        <v>56</v>
+      </c>
       <c r="J26" s="4"/>
     </row>
     <row r="27" spans="1:10" ht="42">
@@ -1366,14 +1665,24 @@
       <c r="C27" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="D27" s="8" t="s">
+      <c r="D27" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="4"/>
-      <c r="I27" s="5"/>
+      <c r="E27" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F27" s="14">
+        <v>44999</v>
+      </c>
+      <c r="G27" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="H27" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="I27" s="13" t="s">
+        <v>56</v>
+      </c>
       <c r="J27" s="4"/>
     </row>
     <row r="28" spans="1:10" ht="84">
@@ -1386,14 +1695,24 @@
       <c r="C28" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D28" s="8" t="s">
+      <c r="D28" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
-      <c r="I28" s="5"/>
+      <c r="E28" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F28" s="14">
+        <v>44999</v>
+      </c>
+      <c r="G28" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="H28" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="I28" s="12" t="s">
+        <v>56</v>
+      </c>
       <c r="J28" s="4"/>
     </row>
     <row r="29" spans="1:10" ht="42">
@@ -1406,14 +1725,24 @@
       <c r="C29" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D29" s="8" t="s">
+      <c r="D29" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="4"/>
-      <c r="I29" s="5"/>
+      <c r="E29" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F29" s="14">
+        <v>44999</v>
+      </c>
+      <c r="G29" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="H29" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="I29" s="12" t="s">
+        <v>56</v>
+      </c>
       <c r="J29" s="4"/>
     </row>
     <row r="30" spans="1:10" ht="21">
@@ -1426,94 +1755,146 @@
       <c r="C30" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D30" s="8" t="s">
+      <c r="D30" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
-      <c r="H30" s="4"/>
-      <c r="I30" s="5"/>
+      <c r="E30" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F30" s="14">
+        <v>44999</v>
+      </c>
+      <c r="G30" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="H30" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="I30" s="12" t="s">
+        <v>56</v>
+      </c>
       <c r="J30" s="4"/>
     </row>
     <row r="31" spans="1:10" ht="84">
       <c r="A31" s="3">
         <v>28</v>
       </c>
-      <c r="B31" s="6" t="s">
+      <c r="B31" s="5" t="s">
         <v>22</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D31" s="8" t="s">
+      <c r="D31" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
-      <c r="H31" s="4"/>
-      <c r="I31" s="7"/>
+      <c r="E31" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F31" s="14">
+        <v>44999</v>
+      </c>
+      <c r="G31" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="H31" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="I31" s="15" t="s">
+        <v>56</v>
+      </c>
       <c r="J31" s="4"/>
     </row>
     <row r="32" spans="1:10" ht="42">
       <c r="A32" s="3">
         <v>29</v>
       </c>
-      <c r="B32" s="6" t="s">
+      <c r="B32" s="5" t="s">
         <v>22</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D32" s="8" t="s">
+      <c r="D32" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="4"/>
-      <c r="H32" s="4"/>
-      <c r="I32" s="7"/>
+      <c r="E32" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F32" s="14">
+        <v>44999</v>
+      </c>
+      <c r="G32" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="H32" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="I32" s="15" t="s">
+        <v>56</v>
+      </c>
       <c r="J32" s="4"/>
     </row>
-    <row r="33" spans="1:10" ht="21">
+    <row r="33" spans="1:10" ht="57" customHeight="1">
       <c r="A33" s="3">
         <v>30</v>
       </c>
-      <c r="B33" s="6" t="s">
+      <c r="B33" s="5" t="s">
         <v>22</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D33" s="8" t="s">
+      <c r="D33" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="4"/>
-      <c r="H33" s="4"/>
-      <c r="I33" s="7"/>
-      <c r="J33" s="4"/>
+      <c r="E33" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F33" s="14">
+        <v>44999</v>
+      </c>
+      <c r="G33" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="H33" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="I33" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="J33" s="6" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="34" spans="1:10" ht="42">
       <c r="A34" s="3">
         <v>31</v>
       </c>
-      <c r="B34" s="6" t="s">
+      <c r="B34" s="5" t="s">
         <v>23</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D34" s="8" t="s">
+      <c r="D34" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
-      <c r="G34" s="4"/>
-      <c r="H34" s="4"/>
-      <c r="I34" s="7"/>
+      <c r="E34" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F34" s="14">
+        <v>44999</v>
+      </c>
+      <c r="G34" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="H34" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="I34" s="13" t="s">
+        <v>56</v>
+      </c>
       <c r="J34" s="4"/>
     </row>
   </sheetData>
